--- a/Pantaleon_DailyTask.xlsx
+++ b/Pantaleon_DailyTask.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Desktop\Group 2- Sept. 5, 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91444A5-8357-4DCB-919C-A56A263F33DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC5B129-B0D7-419F-AE46-D43FF5709322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aug 28- Sep 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Sep 11-13" sheetId="2" r:id="rId2"/>
+    <sheet name="Sep 16-20" sheetId="3" r:id="rId3"/>
+    <sheet name="Sep 23-27" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,44 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>DATE STARTED</t>
-  </si>
-  <si>
-    <t>TIME STARTED</t>
-  </si>
-  <si>
-    <t>DATE END</t>
-  </si>
-  <si>
-    <t>TIME END</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Proposal</t>
   </si>
   <si>
-    <t>Assignment #1</t>
-  </si>
-  <si>
     <t>5PM</t>
   </si>
   <si>
     <t>9PM</t>
   </si>
   <si>
-    <t>08-28-19</t>
-  </si>
-  <si>
-    <t>7PM</t>
-  </si>
-  <si>
-    <t>8PM</t>
-  </si>
-  <si>
     <t>Reseach</t>
   </si>
   <si>
@@ -116,7 +92,13 @@
     <t>1:30pm</t>
   </si>
   <si>
-    <t>Tomorrow</t>
+    <t>Docu. Chapter 2</t>
+  </si>
+  <si>
+    <t>11:39PM</t>
+  </si>
+  <si>
+    <t>9:30PM</t>
   </si>
 </sst>
 </file>
@@ -132,19 +114,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -338,6 +318,84 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -355,75 +413,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,224 +802,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E34E7C-B1B8-4314-A30C-B813676F7C49}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
     <row r="3" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>43564</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8">
+        <v>43594</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>43564</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11">
-        <v>43564</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10">
-        <v>43594</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
-        <v>43720</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
-        <v>43720</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27">
-        <v>43721</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
-        <v>43728</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668A6536-D293-4297-B22A-CB2E8B70A33B}">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="19">
+        <v>43720</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <v>43720</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="21">
+        <v>43721</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C90428-851E-43E4-BE19-5DE3B7AAD3C1}">
+  <dimension ref="B3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="24">
+        <v>43728</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9318A4-E932-4658-86DF-F33F2BE3E950}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="21">
+        <v>45192</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pantaleon_DailyTask.xlsx
+++ b/Pantaleon_DailyTask.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC5B129-B0D7-419F-AE46-D43FF5709322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E94B93-1BEB-4733-880D-2A4B408E5383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 28- Sep 5" sheetId="1" r:id="rId1"/>
     <sheet name="Sep 11-13" sheetId="2" r:id="rId2"/>
     <sheet name="Sep 16-20" sheetId="3" r:id="rId3"/>
     <sheet name="Sep 23-27" sheetId="4" r:id="rId4"/>
+    <sheet name="Sep 30- Oct 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>Proposal</t>
   </si>
@@ -99,6 +100,12 @@
   </si>
   <si>
     <t>9:30PM</t>
+  </si>
+  <si>
+    <t>1PM</t>
+  </si>
+  <si>
+    <t>Docu. Chapter 4</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9318A4-E932-4658-86DF-F33F2BE3E950}">
   <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,4 +1132,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BBB0A1-D0CE-4A46-80BB-C321035E9569}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="21">
+        <v>37897</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>